--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F77DC4F-F42A-4D27-9782-22AB1BF3080A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F1039-1635-4797-B10B-8E461B923ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37470" yWindow="2460" windowWidth="17280" windowHeight="9060" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Version</t>
   </si>
@@ -106,6 +106,90 @@
   </si>
   <si>
     <t>over 30 min not finished</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>5 removed</t>
+  </si>
+  <si>
+    <t>[1] "The guy in front of me just bought a pound of bacon, a bouquet, and a case of"</t>
+  </si>
+  <si>
+    <t>[1] "the"</t>
+  </si>
+  <si>
+    <t>readlines - 4m
+vocab - 3 min
+predit - less than 1 min</t>
+  </si>
+  <si>
+    <t>[1] "Hey sunshine, can you follow me and make me the"</t>
+  </si>
+  <si>
+    <t>[1] "opportunity to"</t>
+  </si>
+  <si>
+    <t>[1] "Very early observations on the Bills game: Offense still struggling but the"</t>
+  </si>
+  <si>
+    <t>[1] "rest of the"</t>
+  </si>
+  <si>
+    <t>[1] "Go on a romantic date at the"</t>
+  </si>
+  <si>
+    <t>[1] "end of the"</t>
+  </si>
+  <si>
+    <t>PASS - [1] "way to"</t>
+  </si>
+  <si>
+    <t>[1] "After the ice bucket challenge Louis will push his long wet hair out of his eyes with his little"</t>
+  </si>
+  <si>
+    <t>not in vocab</t>
+  </si>
+  <si>
+    <t>[1] "Be grateful for the good times and keep the faith during the"</t>
+  </si>
+  <si>
+    <t>[1] "regular season"</t>
+  </si>
+  <si>
+    <t>[1] "If this isn't the cutest thing you've ever seen, then you must be"</t>
+  </si>
+  <si>
+    <t>[1] "so"</t>
+  </si>
+  <si>
+    <t>readlines - 14m
+vocab -12 min</t>
+  </si>
+  <si>
+    <t>PASS "way"</t>
+  </si>
+  <si>
+    <t>PASS "time"</t>
+  </si>
+  <si>
+    <t>"day"</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>"opportunity to"</t>
+  </si>
+  <si>
+    <t>"a"</t>
   </si>
 </sst>
 </file>
@@ -114,7 +198,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -138,12 +222,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,12 +249,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,31 +581,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AA7307-9F72-465A-9E11-419EBFDD9B16}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="44.5546875" customWidth="1"/>
-    <col min="17" max="17" width="37.6640625" customWidth="1"/>
-    <col min="18" max="18" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="44.5546875" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="19" max="19" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,84 +613,106 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="P3">
+        <f>N3/(N3+O3)</f>
         <v>0.3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
       </c>
       <c r="Q3" t="s">
         <v>8</v>
@@ -599,89 +720,297 @@
       <c r="R3" t="s">
         <v>8</v>
       </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.1111</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>24586642</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10367614</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
+      <c r="P4" t="e">
+        <f t="shared" ref="P4:P7" si="0">N4/(N4+O4)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.1111</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
+      <c r="P5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.1111</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>23</v>
+      </c>
+      <c r="P6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200438</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4161948</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2">
+        <v>800851</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>800851</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8279083</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F1039-1635-4797-B10B-8E461B923ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20E2B1-BAC8-4320-9693-A245A4292756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Version</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Sample rate</t>
-  </si>
-  <si>
-    <t>Stop words removed</t>
   </si>
   <si>
     <t>Pass</t>
@@ -183,13 +180,60 @@
     <t>?</t>
   </si>
   <si>
-    <t>3 min</t>
-  </si>
-  <si>
     <t>"opportunity to"</t>
   </si>
   <si>
     <t>"a"</t>
+  </si>
+  <si>
+    <t>3 removed</t>
+  </si>
+  <si>
+    <t>[1] "so proud"</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>ngram level</t>
+  </si>
+  <si>
+    <t>change model to shorten t 4 gram, 3 gram if 5 gram not found?</t>
+  </si>
+  <si>
+    <t>readlines - 30m
+vocab - 15min
+predict - 1 min</t>
+  </si>
+  <si>
+    <t>PASS "world"</t>
+  </si>
+  <si>
+    <t>[1] the</t>
+  </si>
+  <si>
+    <t>"rest of the"</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>Stop words removed at guess?</t>
+  </si>
+  <si>
+    <t>not enough memory</t>
+  </si>
+  <si>
+    <t>brother (finger not in vocab)</t>
+  </si>
+  <si>
+    <t>bad (not in vocab)</t>
+  </si>
+  <si>
+    <t>next remove stopwords</t>
   </si>
 </sst>
 </file>
@@ -581,10 +625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AA7307-9F72-465A-9E11-419EBFDD9B16}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,17 +642,17 @@
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="17" max="17" width="44.5546875" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
-    <col min="19" max="19" width="35.6640625" customWidth="1"/>
+    <col min="20" max="20" width="44.5546875" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" customWidth="1"/>
+    <col min="22" max="22" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Q1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,19 +660,19 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -637,52 +684,61 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -704,27 +760,30 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>7</v>
       </c>
-      <c r="P3">
-        <f>N3/(N3+O3)</f>
+      <c r="S3">
+        <f>Q3/(Q3+R3)</f>
         <v>0.3</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>8</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -752,15 +811,18 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="e">
-        <f t="shared" ref="P4:P7" si="0">N4/(N4+O4)</f>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="e">
+        <f t="shared" ref="S4:S7" si="0">Q4/(Q4+R4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -780,17 +842,20 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="e">
+      <c r="S5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -810,17 +875,20 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="e">
+      <c r="S6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -828,7 +896,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>200438</v>
@@ -849,50 +917,53 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>7</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>8</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>8</v>
       </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>32</v>
+      <c r="V7" t="s">
+        <v>34</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -900,13 +971,13 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>800851</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -921,40 +992,43 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" t="s">
         <v>8</v>
       </c>
-      <c r="R8" t="s">
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AC8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -980,37 +1054,107 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" t="s">
+    </row>
+    <row r="10" spans="1:29" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="B10">
+        <v>0.13343869999999999</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1204675</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12431398</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="3" t="s">
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20E2B1-BAC8-4320-9693-A245A4292756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316680CD-37E2-4D12-B097-E2526862D0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Version</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>next remove stopwords</t>
+  </si>
+  <si>
+    <t>exponents correct, final value frequency calc may need fixing</t>
+  </si>
+  <si>
+    <t>check if vocab words not in corpus</t>
+  </si>
+  <si>
+    <t>pg 63 https://web.stanford.edu/class/cs124/lec/languagemodeling.pdf</t>
   </si>
 </sst>
 </file>
@@ -625,13 +634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AA7307-9F72-465A-9E11-419EBFDD9B16}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,6 +1166,19 @@
         <v>64</v>
       </c>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316680CD-37E2-4D12-B097-E2526862D0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A6CC81-D2F6-43D0-8ACB-3D7C69876E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -637,10 +637,10 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A6CC81-D2F6-43D0-8ACB-3D7C69876E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEDEB52-A2CE-4DEB-AE99-E06027056167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Version</t>
   </si>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>pg 63 https://web.stanford.edu/class/cs124/lec/languagemodeling.pdf</t>
+  </si>
+  <si>
+    <t>readlines 34m -</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>next step, store whole data</t>
   </si>
 </sst>
 </file>
@@ -634,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AA7307-9F72-465A-9E11-419EBFDD9B16}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,6 +678,7 @@
     <col min="20" max="20" width="44.5546875" customWidth="1"/>
     <col min="21" max="21" width="37.6640625" customWidth="1"/>
     <col min="22" max="22" width="35.6640625" customWidth="1"/>
+    <col min="24" max="29" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -661,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,25 +750,25 @@
       <c r="V2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1165,6 +1190,7 @@
       <c r="B11" t="s">
         <v>64</v>
       </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -1177,6 +1203,114 @@
       </c>
       <c r="E13" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.13343869999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0.13343869999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1205519</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12440850</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" t="s">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEDEB52-A2CE-4DEB-AE99-E06027056167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27919D88-D820-4866-88E6-A80A4D888ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>Version</t>
   </si>
@@ -54,10 +54,6 @@
   <si>
     <t>[1] "Ohhhhh #PointBreak is on tomorrow. Love that film and haven't seen it in quite some"
 [1] "time"</t>
-  </si>
-  <si>
-    <t>[1] "Well I'm pretty sure my granny has some old bagpipes in her garage I'll dust them off and be on my"
-[1] "way starting"</t>
   </si>
   <si>
     <t>PASS</t>
@@ -122,9 +118,6 @@
 predit - less than 1 min</t>
   </si>
   <si>
-    <t>[1] "Hey sunshine, can you follow me and make me the"</t>
-  </si>
-  <si>
     <t>[1] "opportunity to"</t>
   </si>
   <si>
@@ -267,6 +260,62 @@
   </si>
   <si>
     <t>next step, store whole data</t>
+  </si>
+  <si>
+    <t>close to 100%</t>
+  </si>
+  <si>
+    <t>unigram-bigram - 3, trigram - 2, others  -1 removed</t>
+  </si>
+  <si>
+    <t>the - problem, popular stop word</t>
+  </si>
+  <si>
+    <t>fail - many more have higher chance</t>
+  </si>
+  <si>
+    <t>end (higher level 4 gram found, it quit</t>
+  </si>
+  <si>
+    <t>brother - didn't go deep enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - didn't go low enouch</t>
+  </si>
+  <si>
+    <t>must be doing - didn't go low enough</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>yes, removed as final answers</t>
+  </si>
+  <si>
+    <t>all opetions taken</t>
+  </si>
+  <si>
+    <t>[1] "Well I'm pretty sure my granny has some old bagpipes in her garage I'll dust them off and be on my"
+[1] "way"</t>
+  </si>
+  <si>
+    <t>[1] "Hey sunshine, can you follow me and make me the"
+[1] happiest</t>
+  </si>
+  <si>
+    <t>fail - best</t>
+  </si>
+  <si>
+    <t>fail - end</t>
+  </si>
+  <si>
+    <t>fail - brother</t>
+  </si>
+  <si>
+    <t>fail - day</t>
+  </si>
+  <si>
+    <t>fail - able</t>
   </si>
 </sst>
 </file>
@@ -658,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AA7307-9F72-465A-9E11-419EBFDD9B16}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +727,8 @@
     <col min="20" max="20" width="44.5546875" customWidth="1"/>
     <col min="21" max="21" width="37.6640625" customWidth="1"/>
     <col min="22" max="22" width="35.6640625" customWidth="1"/>
-    <col min="24" max="29" width="16.88671875" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="25" max="29" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -691,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -715,31 +765,31 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>5</v>
@@ -748,28 +798,28 @@
         <v>6</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="AA2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -795,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -808,13 +858,13 @@
         <v>0.3</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -846,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S4" t="e">
         <f t="shared" ref="S4:S7" si="0">Q4/(Q4+R4)</f>
@@ -876,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
         <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
       </c>
       <c r="S5" t="e">
         <f t="shared" si="0"/>
@@ -909,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
         <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
       </c>
       <c r="S6" t="e">
         <f t="shared" si="0"/>
@@ -930,7 +980,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>200438</v>
@@ -951,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -967,34 +1017,34 @@
         <v>0.3</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -1005,13 +1055,13 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>800851</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1026,40 +1076,40 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="V8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -1088,40 +1138,40 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="AC9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="86.4" x14ac:dyDescent="0.3">
@@ -1132,7 +1182,7 @@
         <v>0.13343869999999999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2">
         <v>1204675</v>
@@ -1153,56 +1203,56 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="3" t="s">
+      <c r="Z10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -1213,7 +1263,7 @@
         <v>0.13343869999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1228,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -1266,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -1278,39 +1328,163 @@
         <v>10</v>
       </c>
       <c r="T15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y15" t="s">
         <v>70</v>
       </c>
-      <c r="U15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="Z15" t="s">
         <v>71</v>
       </c>
-      <c r="X15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>72</v>
       </c>
-      <c r="Z15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>74</v>
-      </c>
       <c r="AB15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
         <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" t="s">
+        <v>68</v>
+      </c>
+      <c r="V17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" t="s">
+        <v>68</v>
+      </c>
+      <c r="X17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" t="s">
+        <v>68</v>
+      </c>
+      <c r="V18" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27919D88-D820-4866-88E6-A80A4D888ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D905301-B361-4934-A641-00477B52CE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
   <si>
     <t>Version</t>
   </si>
@@ -316,6 +317,82 @@
   </si>
   <si>
     <t>fail - able</t>
+  </si>
+  <si>
+    <t>When you breathe, I want to be the air for you. I'll be there for you, I'd live and I'd</t>
+  </si>
+  <si>
+    <t>almost all</t>
+  </si>
+  <si>
+    <t>nearly all</t>
+  </si>
+  <si>
+    <t>at end</t>
+  </si>
+  <si>
+    <t>Profanity removed</t>
+  </si>
+  <si>
+    <t>Punctuation removed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Guy at my table's wife got up to go to the bathroom and I asked about dessert and he started telling me about his</t>
+  </si>
+  <si>
+    <t>I'd give anything to see arctic monkeys this</t>
+  </si>
+  <si>
+    <t>Talking to your mom has the same effect as a hug and helps reduce your</t>
+  </si>
+  <si>
+    <t>When you were in Holland you were like 1 inch away from me but you hadn't time to take a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd just like all of these questions answered, a presentation of evidence, and a jury to settle the
+</t>
+  </si>
+  <si>
+    <t>I can't deal with unsymetrical things. I can't even hold an uneven number of bags of groceries in each</t>
+  </si>
+  <si>
+    <t>Every inch of you is perfect from the bottom to the</t>
+  </si>
+  <si>
+    <t>I’m thankful my childhood was filled with imagination and bruises from playing</t>
+  </si>
+  <si>
+    <t>I like how the same people are in almost all of Adam Sandler's</t>
+  </si>
+  <si>
+    <t>fail - NA</t>
+  </si>
+  <si>
+    <t>fail - spiritual</t>
+  </si>
+  <si>
+    <t>fail - morning</t>
+  </si>
+  <si>
+    <t>pass - stress</t>
+  </si>
+  <si>
+    <t>fail - look</t>
+  </si>
+  <si>
+    <t>fail - case</t>
+  </si>
+  <si>
+    <t>pass - hand</t>
+  </si>
+  <si>
+    <t>pass - top</t>
+  </si>
+  <si>
+    <t>pass - outside</t>
   </si>
 </sst>
 </file>
@@ -326,7 +403,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +423,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -375,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,11 +796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AA7307-9F72-465A-9E11-419EBFDD9B16}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,4 +1578,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E42B5-E1D9-4386-9AE6-E588BF013FBD}">
+  <dimension ref="A1:AC14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
+    <col min="24" max="24" width="19.21875" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.77734375" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D905301-B361-4934-A641-00477B52CE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49466DB6-2B62-48BE-95CF-C83BFB3CC51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>Version</t>
   </si>
@@ -377,9 +377,6 @@
     <t>fail - morning</t>
   </si>
   <si>
-    <t>pass - stress</t>
-  </si>
-  <si>
     <t>fail - look</t>
   </si>
   <si>
@@ -393,6 +390,30 @@
   </si>
   <si>
     <t>pass - outside</t>
+  </si>
+  <si>
+    <t>extra corpus</t>
+  </si>
+  <si>
+    <t>fixed capital issues with sentence</t>
+  </si>
+  <si>
+    <t>top - like, options - die</t>
+  </si>
+  <si>
+    <t>top - orphan, options - spiritual</t>
+  </si>
+  <si>
+    <t>fail - stress</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>pass - top - case, options hand</t>
+  </si>
+  <si>
+    <t>pass - top - basketball, options - outside</t>
   </si>
 </sst>
 </file>
@@ -1584,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E42B5-E1D9-4386-9AE6-E588BF013FBD}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,30 +1754,66 @@
         <v>110</v>
       </c>
       <c r="W2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X2" t="s">
         <v>111</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>112</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>114</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="AC2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="O3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49466DB6-2B62-48BE-95CF-C83BFB3CC51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ABEE8C-0B04-41CF-A00A-B204B8A62F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="R. benchmark" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
   <si>
     <t>Version</t>
   </si>
@@ -414,6 +415,26 @@
   </si>
   <si>
     <t>pass - top - basketball, options - outside</t>
+  </si>
+  <si>
+    <t>unigram</t>
+  </si>
+  <si>
+    <t>top 500</t>
+  </si>
+  <si>
+    <t>numer per root</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     14.68 %
+Overall top-1 precision: 10.66 %
+Overall top-3 precision: 17.72 %
+Average runtime:         910.16 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E42B5-E1D9-4386-9AE6-E588BF013FBD}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -1846,4 +1867,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D4DBA7-6546-4D63-A273-2C8CB4209694}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ABEE8C-0B04-41CF-A00A-B204B8A62F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C9436A-A572-499F-8C3E-3A401ADC4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
   <si>
     <t>Version</t>
   </si>
@@ -435,6 +435,144 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     16.26 %
+Overall top-1 precision: 12.90 %
+Overall top-3 precision: 18.55 %
+Average runtime:         872.25 msec
+Number of predictions:   448
+Total memory used:       2237.29 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.37 %
+Overall top-1 precision: 11.60 %
+Overall top-3 precision: 18.92 %
+Average runtime:         828.93 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.77 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.92 %
+Average runtime:         816.88 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.80 %
+Overall top-1 precision: 12.06 %
+Overall top-3 precision: 18.83 %
+Average runtime:         803.55 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Alpha manipulation</t>
+  </si>
+  <si>
+    <t>top 5</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.83 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.65 %
+Average runtime:         84.44 msec
+Number of predictions:   448
+Total memory used:       2002.94 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     14.68 %
+Overall top-1 precision: 10.66 %
+Overall top-3 precision: 17.91 %
+Average runtime:         82.05 msec
+Number of predictions:   448
+Total memory used:       2002.94 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     14.75 %
+Overall top-1 precision: 11.60 %
+Overall top-3 precision: 17.44 %
+Average runtime:         79.80 msec
+Number of predictions:   448
+Total memory used:       2002.91 MB</t>
+  </si>
+  <si>
+    <t>removing sum</t>
+  </si>
+  <si>
+    <t>keep sum command, improves little increase in time</t>
+  </si>
+  <si>
+    <t>only keeping top 5 increases run time</t>
+  </si>
+  <si>
+    <t>top 200</t>
+  </si>
+  <si>
+    <t>shrink unigram</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.83 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.65 %
+Average runtime:         47.48 msec
+Number of predictions:   448
+Total memory used:       2002.91 MB</t>
+  </si>
+  <si>
+    <t>remove global env</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.83 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.65 %
+Average runtime:         79.15 msec
+Number of predictions:   448
+Total memory used:       380.67 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.12 %
+Overall top-1 precision: 11.96 %
+Overall top-3 precision: 17.91 %
+Average runtime:         42.23 msec
+Number of predictions:   448
+Total memory used:       84.84 MB</t>
+  </si>
+  <si>
+    <t>frequency of words 12 and up</t>
+  </si>
+  <si>
+    <t>only keeping top 5 decreases run time</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.89 %
+Overall top-1 precision: 12.90 %
+Overall top-3 precision: 18.18 %
+Average runtime:         45.83 msec
+Number of predictions:   448
+Total memory used:       1702.01 MB</t>
+  </si>
+  <si>
+    <t>mini test</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     16.11 %
+Overall top-1 precision: 12.21 %
+Overall top-3 precision: 19.54 %
+Average runtime:         51.49 msec
+Number of predictions:   28464
+Total memory used:       1702.27 MB</t>
+  </si>
+  <si>
+    <t>frequency of words 12 and up, ignore size as extra items in env</t>
   </si>
 </sst>
 </file>
@@ -501,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -519,6 +657,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1871,55 +2012,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D4DBA7-6546-4D63-A273-2C8CB4209694}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
         <v>125</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7">
         <v>0.4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15">
+        <v>0.15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49466DB6-2B62-48BE-95CF-C83BFB3CC51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A073C8-CD8C-49A4-AC98-4812137D76CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="R. benchmark" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="157">
   <si>
     <t>Version</t>
   </si>
@@ -414,6 +415,175 @@
   </si>
   <si>
     <t>pass - top - basketball, options - outside</t>
+  </si>
+  <si>
+    <t>unigram</t>
+  </si>
+  <si>
+    <t>top 500</t>
+  </si>
+  <si>
+    <t>numer per root</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     14.68 %
+Overall top-1 precision: 10.66 %
+Overall top-3 precision: 17.72 %
+Average runtime:         910.16 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     16.26 %
+Overall top-1 precision: 12.90 %
+Overall top-3 precision: 18.55 %
+Average runtime:         872.25 msec
+Number of predictions:   448
+Total memory used:       2237.29 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.37 %
+Overall top-1 precision: 11.60 %
+Overall top-3 precision: 18.92 %
+Average runtime:         828.93 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.77 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.92 %
+Average runtime:         816.88 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.80 %
+Overall top-1 precision: 12.06 %
+Overall top-3 precision: 18.83 %
+Average runtime:         803.55 msec
+Number of predictions:   448
+Total memory used:       2319.75 MB</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Alpha manipulation</t>
+  </si>
+  <si>
+    <t>top 5</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.83 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.65 %
+Average runtime:         84.44 msec
+Number of predictions:   448
+Total memory used:       2002.94 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     14.68 %
+Overall top-1 precision: 10.66 %
+Overall top-3 precision: 17.91 %
+Average runtime:         82.05 msec
+Number of predictions:   448
+Total memory used:       2002.94 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     14.75 %
+Overall top-1 precision: 11.60 %
+Overall top-3 precision: 17.44 %
+Average runtime:         79.80 msec
+Number of predictions:   448
+Total memory used:       2002.91 MB</t>
+  </si>
+  <si>
+    <t>removing sum</t>
+  </si>
+  <si>
+    <t>keep sum command, improves little increase in time</t>
+  </si>
+  <si>
+    <t>only keeping top 5 increases run time</t>
+  </si>
+  <si>
+    <t>top 200</t>
+  </si>
+  <si>
+    <t>shrink unigram</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.83 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.65 %
+Average runtime:         47.48 msec
+Number of predictions:   448
+Total memory used:       2002.91 MB</t>
+  </si>
+  <si>
+    <t>remove global env</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.83 %
+Overall top-1 precision: 12.61 %
+Overall top-3 precision: 18.65 %
+Average runtime:         79.15 msec
+Number of predictions:   448
+Total memory used:       380.67 MB</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.12 %
+Overall top-1 precision: 11.96 %
+Overall top-3 precision: 17.91 %
+Average runtime:         42.23 msec
+Number of predictions:   448
+Total memory used:       84.84 MB</t>
+  </si>
+  <si>
+    <t>frequency of words 12 and up</t>
+  </si>
+  <si>
+    <t>only keeping top 5 decreases run time</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     15.89 %
+Overall top-1 precision: 12.90 %
+Overall top-3 precision: 18.18 %
+Average runtime:         45.83 msec
+Number of predictions:   448
+Total memory used:       1702.01 MB</t>
+  </si>
+  <si>
+    <t>mini test</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     16.11 %
+Overall top-1 precision: 12.21 %
+Overall top-3 precision: 19.54 %
+Average runtime:         51.49 msec
+Number of predictions:   28464
+Total memory used:       1702.27 MB</t>
+  </si>
+  <si>
+    <t>frequency of words 12 and up, ignore size as extra items in env</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     3.76 %
+Overall top-1 precision: 2.90 %
+Overall top-3 precision: 4.48 %
+Average runtime:         78.65 msec
+Number of predictions:   28464
+Total memory used:       1702.39 MB</t>
+  </si>
+  <si>
+    <t>removed stop words, very poor performance, need them</t>
   </si>
 </sst>
 </file>
@@ -480,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -498,6 +668,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1605,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E42B5-E1D9-4386-9AE6-E588BF013FBD}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -1846,4 +2019,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D4DBA7-6546-4D63-A273-2C8CB4209694}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>0.15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15">
+        <v>0.15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
+++ b/Johns.Hopkins.Data.Science.Specialization/NLP.project/R.Project/Model-improvement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthoms\Documents\Training\Coursera\Johns.Hopkins.Data.Science.Specialization\NLP.project\R.Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A073C8-CD8C-49A4-AC98-4812137D76CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7A840-D04C-4DDE-B1FA-CA8C7E355D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{98F435A4-3A33-4075-849B-0D63A5FCEF36}"/>
   </bookViews>
@@ -564,14 +564,6 @@
     <t>full</t>
   </si>
   <si>
-    <t>Overall top-3 score:     16.11 %
-Overall top-1 precision: 12.21 %
-Overall top-3 precision: 19.54 %
-Average runtime:         51.49 msec
-Number of predictions:   28464
-Total memory used:       1702.27 MB</t>
-  </si>
-  <si>
     <t>frequency of words 12 and up, ignore size as extra items in env</t>
   </si>
   <si>
@@ -584,6 +576,14 @@
   </si>
   <si>
     <t>removed stop words, very poor performance, need them</t>
+  </si>
+  <si>
+    <t>Overall top-3 score:     16.11 %
+Overall top-1 precision: 12.21 %
+Overall top-3 precision: 19.54 %
+Average runtime:         51.49 msec
+Number of predictions:   28464
+Total memory used:       84.84 MB</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,12 +645,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,6 +686,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2026,7 +2044,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,7 +2319,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -2318,10 +2336,10 @@
         <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -2334,11 +2352,11 @@
       <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
         <v>153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -2355,10 +2373,10 @@
         <v>135</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
         <v>155</v>
-      </c>
-      <c r="F16" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
